--- a/cleaned data/REL_PED Fall 22 Sched_F22.xlsx
+++ b/cleaned data/REL_PED Fall 22 Sched_F22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
   <si>
     <t>Block</t>
   </si>
@@ -244,6 +244,9 @@
     <t>TR</t>
   </si>
   <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>MAIN</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
   <si>
     <t>FIELLD</t>
@@ -792,22 +798,22 @@
         <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J2">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -830,22 +836,22 @@
         <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J3">
         <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -871,22 +877,22 @@
         <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -909,22 +915,22 @@
         <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -950,22 +956,22 @@
         <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -991,22 +997,22 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1029,22 +1035,22 @@
         <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J8">
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1066,9 +1072,21 @@
       <c r="F9" t="s">
         <v>68</v>
       </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
       <c r="J9">
         <v>24</v>
       </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -1090,22 +1108,22 @@
         <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J10">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1128,22 +1146,22 @@
         <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1169,22 +1187,22 @@
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J12">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1210,22 +1228,22 @@
         <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1248,25 +1266,25 @@
         <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J14">
         <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1292,22 +1310,22 @@
         <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J15">
         <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1333,22 +1351,22 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J16">
         <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1368,25 +1386,25 @@
         <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J17">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1408,11 +1426,23 @@
       <c r="F18" t="s">
         <v>70</v>
       </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
       <c r="J18">
         <v>24</v>
       </c>
+      <c r="K18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>104</v>
+      </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1434,9 +1464,21 @@
       <c r="F19" t="s">
         <v>70</v>
       </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
       <c r="J19">
         <v>24</v>
       </c>
+      <c r="K19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="B20" t="s">
@@ -1458,22 +1500,22 @@
         <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J20">
         <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1496,22 +1538,22 @@
         <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1537,22 +1579,22 @@
         <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J22">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1575,22 +1617,22 @@
         <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J23">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1616,22 +1658,22 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J24">
         <v>24</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1654,22 +1696,22 @@
         <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J25">
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1689,25 +1731,25 @@
         <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J26">
         <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1729,8 +1771,20 @@
       <c r="F27" t="s">
         <v>69</v>
       </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
       <c r="J27">
         <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
